--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.107882</v>
+        <v>0.334207</v>
       </c>
       <c r="H2">
-        <v>0.323646</v>
+        <v>1.002621</v>
       </c>
       <c r="I2">
-        <v>0.02452706661372928</v>
+        <v>0.07226389998643547</v>
       </c>
       <c r="J2">
-        <v>0.02452706661372928</v>
+        <v>0.07226389998643548</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N2">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>9.184241925544001</v>
+        <v>0.0007617691553333332</v>
       </c>
       <c r="R2">
-        <v>82.65817732989601</v>
+        <v>0.006855922398000001</v>
       </c>
       <c r="S2">
-        <v>0.02452706661372928</v>
+        <v>0.07226389998643547</v>
       </c>
       <c r="T2">
-        <v>0.02452706661372928</v>
+        <v>0.07226389998643548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>7.445608</v>
       </c>
       <c r="I3">
-        <v>0.5642551534569117</v>
+        <v>0.5366421328200824</v>
       </c>
       <c r="J3">
-        <v>0.5642551534569117</v>
+        <v>0.5366421328200826</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N3">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>211.2872247911787</v>
+        <v>0.005657007500444445</v>
       </c>
       <c r="R3">
-        <v>1901.585023120608</v>
+        <v>0.050913067504</v>
       </c>
       <c r="S3">
-        <v>0.5642551534569117</v>
+        <v>0.5366421328200824</v>
       </c>
       <c r="T3">
-        <v>0.5642551534569117</v>
+        <v>0.5366421328200826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>5.426209</v>
       </c>
       <c r="I4">
-        <v>0.411217779929359</v>
+        <v>0.3910939671934819</v>
       </c>
       <c r="J4">
-        <v>0.411217779929359</v>
+        <v>0.391093967193482</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N4">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>153.9818696803427</v>
+        <v>0.004122713015777778</v>
       </c>
       <c r="R4">
-        <v>1385.836827123084</v>
+        <v>0.037104417142</v>
       </c>
       <c r="S4">
-        <v>0.411217779929359</v>
+        <v>0.3910939671934819</v>
       </c>
       <c r="T4">
-        <v>0.411217779929359</v>
+        <v>0.391093967193482</v>
       </c>
     </row>
   </sheetData>
